--- a/dtpu_configurations/only_integer16/30mhz/mxu_8x8/power.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_8x8/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.013430058024823666</v>
+        <v>0.014049473218619823</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005311299581080675</v>
+        <v>0.005894922185689211</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004224391188472509</v>
+        <v>0.004305017646402121</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.002919320249930024</v>
+        <v>0.003029827494174242</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.7893484255182557E-5</v>
+        <v>2.758340815489646E-5</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>7.477730978280306E-4</v>
@@ -196,13 +196,13 @@
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12724493443965912</v>
+        <v>0.12725618481636047</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4120796918869019</v>
+        <v>1.4134758710861206</v>
       </c>
     </row>
   </sheetData>
